--- a/SEGOL-9DY3062 - johanb01.xlsx
+++ b/SEGOL-9DY3062 - johanb01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="151">
   <si>
     <t>Office</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>Tar overlay icons vilket är begränsat i win7. (Göra att SVN och GIT inte visar rätt iconer)</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -998,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1388,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -2334,7 +2337,9 @@
       <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>

--- a/SEGOL-9DY3062 - johanb01.xlsx
+++ b/SEGOL-9DY3062 - johanb01.xlsx
@@ -12,14 +12,14 @@
     <sheet name="live" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'App List'!$A$1:$H$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'App List'!$A$1:$H$76</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="185">
   <si>
     <t>Office</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Autodesk (Inventor + ACAD)</t>
   </si>
   <si>
-    <t>Vsphere</t>
-  </si>
-  <si>
     <t>Cisco AnyConnect</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Program</t>
   </si>
   <si>
-    <t>Länk</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>K:\Share\BjornJ\Apps - Installations Program\Elprocad</t>
   </si>
   <si>
-    <t>För Desigo</t>
-  </si>
-  <si>
     <t>VPN</t>
   </si>
   <si>
@@ -312,19 +303,12 @@
     <t>K:\Share\BjornJ\Apps - Installations Program\#D</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>För att skapa chm hjälp filer</t>
   </si>
   <si>
     <t>Automatisk icat inloggning</t>
   </si>
   <si>
-    <t xml:space="preserve">Först installationsproblem som lösta sig. 
-Nu AD mig problem. "johnsonmatthey\johanb01" saknades på servern </t>
-  </si>
-  <si>
     <t>vpn.matthey.com är det ända man behöver configa. Dock funkar inte icats doc. Hantering.</t>
   </si>
   <si>
@@ -337,9 +321,6 @@
     <t>Config strulade lite. Måste syncas i rätt ordning. Anders hjälpte mig.</t>
   </si>
   <si>
-    <t>USB licenslås upphittad i serverrummet :-)</t>
-  </si>
-  <si>
     <t>byta media containers</t>
   </si>
   <si>
@@ -370,18 +351,12 @@
     <t>Den som fanns på K fungerade inte. Behövde ladda ner ny variant från nätet. Oklart vilken verson som är bäst.</t>
   </si>
   <si>
-    <t>192.168.29.22</t>
-  </si>
-  <si>
     <t>SenseTool</t>
   </si>
   <si>
     <t>Mycket manuellt arbete att få demon att funka.</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Q kolla ST lösningar</t>
   </si>
   <si>
@@ -418,9 +393,6 @@
     <t>Helpmaker</t>
   </si>
   <si>
-    <t>chm authoring</t>
-  </si>
-  <si>
     <t>http://sourceforge.net/p/helpmaker/wiki/Home/</t>
   </si>
   <si>
@@ -472,7 +444,150 @@
     <t>Tar overlay icons vilket är begränsat i win7. (Göra att SVN och GIT inte visar rätt iconer)</t>
   </si>
   <si>
-    <t>test</t>
+    <t>K-Länk</t>
+  </si>
+  <si>
+    <t>Internet Länk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installationsproblem som löst sig. Logga in på segovca02.johnsonmatthey.com (logga in med ditt vanliga AD konto). </t>
+  </si>
+  <si>
+    <t>VM ware Vsphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">För att nå VM "SEGOENDES" &amp;
+</t>
+  </si>
+  <si>
+    <t>Flödesdiagram</t>
+  </si>
+  <si>
+    <t>Kryptera klient</t>
+  </si>
+  <si>
+    <t>Patchat och klart</t>
+  </si>
+  <si>
+    <t>virus skydd</t>
+  </si>
+  <si>
+    <t>MS Office</t>
+  </si>
+  <si>
+    <t>Det mesta</t>
+  </si>
+  <si>
+    <t>Komma åt servrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Installera ej på Client. Använd VM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEGOV-VIR004 via Vshere.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fungerar ej på SEGOV-VIR004…trorl jag installerar lokalt om jag skulle behöva programet.</t>
+  </si>
+  <si>
+    <t>Är installerad pp W0102.</t>
+  </si>
+  <si>
+    <t>Mindmaps</t>
+  </si>
+  <si>
+    <t>Finns på Software Center</t>
+  </si>
+  <si>
+    <t>Java runtime.</t>
+  </si>
+  <si>
+    <t>Text redigerare</t>
+  </si>
+  <si>
+    <t>MS komponent som krävs för Help 'n doc</t>
+  </si>
+  <si>
+    <t>Felsökning ServET</t>
+  </si>
+  <si>
+    <t>Media spelare</t>
+  </si>
+  <si>
+    <t>Bildredigering</t>
+  </si>
+  <si>
+    <t>Svenskt rättstavning</t>
+  </si>
+  <si>
+    <t>CHM authoring</t>
+  </si>
+  <si>
+    <t>Synca kontakter</t>
+  </si>
+  <si>
+    <t>Öppna VBE moduler</t>
+  </si>
+  <si>
+    <t>Buggrätta "Read Only" för MS Excel.</t>
+  </si>
+  <si>
+    <t>Starta VM lokalt</t>
+  </si>
+  <si>
+    <t>Sketchup</t>
+  </si>
+  <si>
+    <t>3D rita</t>
+  </si>
+  <si>
+    <t>OBS - Open Broadcast Software</t>
+  </si>
+  <si>
+    <t>Spela in skärmvideos</t>
+  </si>
+  <si>
+    <t>Frontpanel Designer</t>
+  </si>
+  <si>
+    <t>Fluke skopemeter 4.2</t>
+  </si>
+  <si>
+    <t>Android studio</t>
+  </si>
+  <si>
+    <t>7-zip (x64)</t>
+  </si>
+  <si>
+    <t>Driod ScreenCast</t>
+  </si>
+  <si>
+    <t>Casta admroid via USB till PC</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Kräver JAVA. (Ver 1.1 installerad)</t>
+  </si>
+  <si>
+    <t>https://www.libreoffice.org/download/libreoffice-fresh/</t>
+  </si>
+  <si>
+    <t>Libre Office</t>
   </si>
 </sst>
 </file>
@@ -513,12 +628,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -545,15 +660,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -566,15 +672,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -593,9 +699,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -608,8 +711,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,83 +1111,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="9" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="9"/>
     <col min="5" max="5" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.5703125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="94" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="9"/>
+    <col min="6" max="6" width="100.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="I2" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>0</v>
@@ -1083,101 +1202,116 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="I3" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="I4" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="I5" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="I6" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="I7" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>0</v>
@@ -1185,1020 +1319,1192 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="I8" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
+      <c r="C9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="I9" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>15</v>
+      <c r="C10" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="I10" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="C12" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="I12" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="I13" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+        <v>29</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="I15" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="I16" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2"/>
+      <c r="I17" s="20" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
+      <c r="I18" s="20" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
+      <c r="I19" s="20" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H20" s="1"/>
+      <c r="I20" s="20" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
+      <c r="I21" s="20" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="I22" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="I23" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="I24" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+        <v>47</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+        <v>34</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
+      <c r="I28" s="20" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="I29" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+        <v>65</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="14"/>
+      <c r="I31" s="20" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+        <v>60</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="I34" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="I35" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="I36" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="I37" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="I38" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="I39" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="I40" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="I41" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="I42" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="I43" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="I44" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="I45" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="I47" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+      <c r="I48" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="I49" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="6"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="I50" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="6"/>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+      <c r="I51" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="6"/>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+      <c r="I52" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="6"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+      <c r="I53" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="D54" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="6"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+      <c r="I54" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D55" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="6"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
+      <c r="I55" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="D56" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+      <c r="I56" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D57" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>0</v>
@@ -2206,166 +2512,424 @@
       <c r="F57" s="1"/>
       <c r="G57" s="6"/>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
+      <c r="I57" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
+        <v>124</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="D59" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+        <v>126</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="D60" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="6"/>
       <c r="H60" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+        <v>133</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="D61" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+        <v>129</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="6"/>
       <c r="H62" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+        <v>135</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F63" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="I63" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="6"/>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="I64" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
         <v>64</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="6"/>
       <c r="H65" s="1"/>
+      <c r="I65" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="20" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H48">
+  <autoFilter ref="A1:H76">
     <sortState ref="A2:H47">
       <sortCondition ref="A1:A47"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D1:D48 D66:D1048576">
+  <conditionalFormatting sqref="D77:D1048576 D1:D48">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Klart IT"</formula>
     </cfRule>
@@ -2376,7 +2940,7 @@
       <formula>"Klart"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D65">
+  <conditionalFormatting sqref="D49:D76">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Klart IT"</formula>
     </cfRule>
@@ -2388,30 +2952,30 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2"/>
-    <hyperlink ref="G17" r:id="rId3"/>
-    <hyperlink ref="H14" r:id="rId4"/>
-    <hyperlink ref="G14" r:id="rId5"/>
-    <hyperlink ref="H26" r:id="rId6"/>
-    <hyperlink ref="G15" r:id="rId7"/>
-    <hyperlink ref="H25" r:id="rId8"/>
-    <hyperlink ref="H27" r:id="rId9"/>
-    <hyperlink ref="H32" r:id="rId10"/>
-    <hyperlink ref="G30" r:id="rId11"/>
-    <hyperlink ref="G46" r:id="rId12"/>
-    <hyperlink ref="G44" r:id="rId13"/>
-    <hyperlink ref="G45" r:id="rId14"/>
-    <hyperlink ref="G48" r:id="rId15"/>
-    <hyperlink ref="G20" r:id="rId16" location="D"/>
-    <hyperlink ref="G13" r:id="rId17"/>
-    <hyperlink ref="H46" r:id="rId18"/>
-    <hyperlink ref="H58" r:id="rId19"/>
-    <hyperlink ref="H59" r:id="rId20"/>
-    <hyperlink ref="H61" r:id="rId21"/>
-    <hyperlink ref="H60" r:id="rId22"/>
-    <hyperlink ref="H62" r:id="rId23"/>
-    <hyperlink ref="G63" r:id="rId24"/>
+    <hyperlink ref="G9" r:id="rId1"/>
+    <hyperlink ref="G17" r:id="rId2"/>
+    <hyperlink ref="H14" r:id="rId3"/>
+    <hyperlink ref="G14" r:id="rId4"/>
+    <hyperlink ref="H26" r:id="rId5"/>
+    <hyperlink ref="G15" r:id="rId6"/>
+    <hyperlink ref="H25" r:id="rId7"/>
+    <hyperlink ref="H27" r:id="rId8"/>
+    <hyperlink ref="H32" r:id="rId9"/>
+    <hyperlink ref="G30" r:id="rId10"/>
+    <hyperlink ref="G46" r:id="rId11"/>
+    <hyperlink ref="G44" r:id="rId12"/>
+    <hyperlink ref="G45" r:id="rId13"/>
+    <hyperlink ref="G48" r:id="rId14"/>
+    <hyperlink ref="G20" r:id="rId15" location="D"/>
+    <hyperlink ref="G13" r:id="rId16"/>
+    <hyperlink ref="H46" r:id="rId17"/>
+    <hyperlink ref="H58" r:id="rId18"/>
+    <hyperlink ref="H59" r:id="rId19"/>
+    <hyperlink ref="H61" r:id="rId20"/>
+    <hyperlink ref="H60" r:id="rId21"/>
+    <hyperlink ref="H62" r:id="rId22"/>
+    <hyperlink ref="G63" r:id="rId23"/>
+    <hyperlink ref="H71" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>

--- a/SEGOL-9DY3062 - johanb01.xlsx
+++ b/SEGOL-9DY3062 - johanb01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'App List'!$A$1:$H$76</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="191">
   <si>
     <t>Office</t>
   </si>
@@ -589,11 +589,29 @@
   <si>
     <t>Libre Office</t>
   </si>
+  <si>
+    <t>Avinstallerat Feb. 2017</t>
+  </si>
+  <si>
+    <t>Avinstallerat</t>
+  </si>
+  <si>
+    <t>K:\Share\BjornJ\Apps - Installations Program\AccessDatabaseEngine2010</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/download/confirmation.aspx?id=13255</t>
+  </si>
+  <si>
+    <t>Access Database Engine Redist.</t>
+  </si>
+  <si>
+    <t>Krävs för fuelstatus 2 när office 2010 avinstallaras</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,6 +795,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -798,7 +819,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -867,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -900,9 +927,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,6 +979,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1114,18 +1175,18 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="9"/>
+    <col min="3" max="3" width="45.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" style="9" customWidth="1"/>
@@ -2504,12 +2565,14 @@
         <v>165</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="1"/>
       <c r="I57" s="20" t="s">
@@ -2852,13 +2915,25 @@
       <c r="A72" s="16">
         <v>71</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F72" s="1"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="1"/>
+      <c r="G72" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="I72" s="20" t="s">
         <v>153</v>
       </c>
@@ -2976,9 +3051,10 @@
     <hyperlink ref="H62" r:id="rId22"/>
     <hyperlink ref="G63" r:id="rId23"/>
     <hyperlink ref="H71" r:id="rId24"/>
+    <hyperlink ref="H72" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
